--- a/medicine/Nettoyage et hygiène/Lessive_(détergent)/Lessive_(détergent).xlsx
+++ b/medicine/Nettoyage et hygiène/Lessive_(détergent)/Lessive_(détergent).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lessive_(d%C3%A9tergent)</t>
+          <t>Lessive_(détergent)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Originellement, la lessive (du latin lixiva : « eau pour la lessive ») désignait l'eau de lavage ou l'action de laver du linge, puis le linge lui-même : on fait la lessive dans une buanderie, une laverie, au lavoir, à la main, dans une lessiveuse ou dans une machine à laver, aussi appelée lave-linge.
 La lessive désigne également le mélange liquide ou solide de produits chimiques utilisés pour le lavage domestique ou industriel. L'action nettoyante est notamment assurée par des produits détersifs comme le savon. On parle par exemple de « détergent pour lessive », ce qui signifie « lessive pour machine à laver ».
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lessive_(d%C3%A9tergent)</t>
+          <t>Lessive_(détergent)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Principe général d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le principe général d'action des lessives repose sur l'utilisation de tensioactifs : capables de se lier à la fois aux graisses et à l'eau, grâce à la particularité d'être des molécules à la fois polaires et apolaires, elles permettent de séparer les saletés des vêtements et de les mélanger à l'eau, avant que celle-ci ne soit évacuée.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lessive_(d%C3%A9tergent)</t>
+          <t>Lessive_(détergent)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lessives contiennent :
 des détergents (tensioactifs appelés aussi agents de surface) qui augmentent le mouillage des tissus, enrobent les salissures, les détachent du linge puis les maintiennent dispersées dans l'eau (alkylbenzènesulfonate, savon, laurylsulfate, dodécylbenzènesulfonate, etc.) ;
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lessive_(d%C3%A9tergent)</t>
+          <t>Lessive_(détergent)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,12 +605,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lessives généralistes et lessives « couleurs »
-Les lessives généralistes - liquides ou en poudre - sont utilisées pour le linge « de tous les jours » tandis que les lessives liquides « couleurs » respectent les couleurs des textiles (elles contiennent des agents azurants mais pas d'agents de blanchiment qui affadissent les couleurs, contrairement aux lessives en poudre qui peuvent contenir les deux types d'agents[1]). Toutes ces lessives peuvent contenir comme produits auxiliaires des enzymes qui fragmentent les salissures organiques. Ces enzymes pouvant s'attaquer à la laine ou la soie, ont été formulées des lessives « linge délicat » dépourvues d’enzymes[2].
-Lessives naturelles
-L'homme n'a pas attendu notre époque pour nettoyer et lessiver le linge. La cendre de bois brûlé (cf. par exemple, les bugadières) et divers autres matériaux de type savon ont depuis longtemps été affectés à cet usage.
-Longtemps utilisée, la lessive à la cendre de bois refait son apparition dans de nombreux foyers. Ce produit a l'avantage d'être gratuit, très simple à fabriquer, durable et tout aussi efficace qu'une lessive standard.[réf. nécessaire]
-Les feuilles de lierre grimpant contiennent naturellement des saponosides ; bouilli avec de l'eau, c'est une lessive efficace.[réf. nécessaire]
+          <t>Lessives généralistes et lessives « couleurs »</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lessives généralistes - liquides ou en poudre - sont utilisées pour le linge « de tous les jours » tandis que les lessives liquides « couleurs » respectent les couleurs des textiles (elles contiennent des agents azurants mais pas d'agents de blanchiment qui affadissent les couleurs, contrairement aux lessives en poudre qui peuvent contenir les deux types d'agents). Toutes ces lessives peuvent contenir comme produits auxiliaires des enzymes qui fragmentent les salissures organiques. Ces enzymes pouvant s'attaquer à la laine ou la soie, ont été formulées des lessives « linge délicat » dépourvues d’enzymes.
 </t>
         </is>
       </c>
@@ -605,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lessive_(d%C3%A9tergent)</t>
+          <t>Lessive_(détergent)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,10 +637,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lessives naturelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'homme n'a pas attendu notre époque pour nettoyer et lessiver le linge. La cendre de bois brûlé (cf. par exemple, les bugadières) et divers autres matériaux de type savon ont depuis longtemps été affectés à cet usage.
+Longtemps utilisée, la lessive à la cendre de bois refait son apparition dans de nombreux foyers. Ce produit a l'avantage d'être gratuit, très simple à fabriquer, durable et tout aussi efficace qu'une lessive standard.[réf. nécessaire]
+Les feuilles de lierre grimpant contiennent naturellement des saponosides ; bouilli avec de l'eau, c'est une lessive efficace.[réf. nécessaire]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lessive_(détergent)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Nettoyage et hygiène/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lessive_(d%C3%A9tergent)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Impact sur l'environnement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lessives se retrouvent dans les eaux usées. Après un traitement en station d'épuration, les eaux usées sont libérées dans la nature.
 Les lessives génèrent une importante pollution, de par la présence de molécules plus ou moins labiles (instables ou mobiles), toxiques et rémanentes :
@@ -638,44 +696,13 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Lessive_(d%C3%A9tergent)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Nettoyage et hygiène/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lessive_(d%C3%A9tergent)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Origines</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premières lessives à base de savon datent de la fin du XIXe siècle. Cependant, ce n'est qu'à partir de 1930 que la lessive « moderne » fait son apparition. Le savon est alors remplacé par des tensioactifs de synthèse. Avant cela, on utilisait aussi des lessives 100 % naturelles à base de cendre de bois pour venir à bout des taches rebelles. La cendre contient de la potasse — composé chimique dérivé du potassium — et du carbonate de sodium qui dissolvent les graisses. On utilisait aussi la saponaire, une plante aux effets identiques. Mais pour débarrasser le linge de ces substances, il fallait alors le battre interminablement.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lessive_(d%C3%A9tergent)</t>
+          <t>Lessive_(détergent)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -690,12 +717,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Consommation</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afin de se mettre en conformité avec le règlement européen (CE 648/2004) applicable depuis mars 2005, les fabricants sont tenus de mentionner la présence de tout conservateur ainsi que celle de vingt-six substances allergisantes lorsque leur proportion pondérale dépassera 0,01 %. En outre, les industriels négocient avec le gouvernement français un engagement de réduction des quantités de lessive par dose : la dose de poudre est passée de 150 g en 1998 à 100 g en 2005, et ne devrait être plus que de 60 à 70 g en 2010. Compte tenu du nombre de lavages – environ cinq milliards par an[réf. nécessaire] –, cela représente 500 000 tonnes de produit.
+          <t>Origines</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premières lessives à base de savon datent de la fin du XIXe siècle. Cependant, ce n'est qu'à partir de 1930 que la lessive « moderne » fait son apparition. Le savon est alors remplacé par des tensioactifs de synthèse. Avant cela, on utilisait aussi des lessives 100 % naturelles à base de cendre de bois pour venir à bout des taches rebelles. La cendre contient de la potasse — composé chimique dérivé du potassium — et du carbonate de sodium qui dissolvent les graisses. On utilisait aussi la saponaire, une plante aux effets identiques. Mais pour débarrasser le linge de ces substances, il fallait alors le battre interminablement.
 </t>
         </is>
       </c>
@@ -706,7 +735,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lessive_(d%C3%A9tergent)</t>
+          <t>Lessive_(détergent)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -721,10 +750,45 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Consommation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afin de se mettre en conformité avec le règlement européen (CE 648/2004) applicable depuis mars 2005, les fabricants sont tenus de mentionner la présence de tout conservateur ainsi que celle de vingt-six substances allergisantes lorsque leur proportion pondérale dépassera 0,01 %. En outre, les industriels négocient avec le gouvernement français un engagement de réduction des quantités de lessive par dose : la dose de poudre est passée de 150 g en 1998 à 100 g en 2005, et ne devrait être plus que de 60 à 70 g en 2010. Compte tenu du nombre de lavages – environ cinq milliards par an[réf. nécessaire] –, cela représente 500 000 tonnes de produit.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lessive_(détergent)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Nettoyage et hygiène/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lessive_(d%C3%A9tergent)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Conseils d'utilisation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Une attitude écologiquement responsable consiste à :
 réfléchir sur le besoin de laver autant : un vêtement est-il réellement sale après avoir été porté une fois ? Ne suffit-il pas de l'aérer ? Une nuit accroché à un cintre sur le balcon permet d'enlever la plupart des mauvaises odeurs ;
@@ -738,38 +802,7 @@
 utiliser moins de produit si l'eau utilisée est douce (c.-à-d. sa dureté totale est inférieure à 15 °f),
 l'activité enzymatique étant maximale vers une température de 40 °C, les lessives aux enzymes enlèveront mieux les taches organiques à basse température,
 les balles de lavage sont des balles qui battent le linge dans la machine à laver le linge et permettent d'utiliser moins ou pas de lessives.
-On trouve dans le commerce des boules de lavage contenant des billes en céramique, censées augmenter le pouvoir lavant de l'eau. Aucune étude n'a prouvé l'efficacité de ces dispositifs et les tests effectuées donnent des résultats à peine meilleur qu'un lavage à l'eau[3].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Lessive_(d%C3%A9tergent)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Nettoyage et hygiène/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lessive_(d%C3%A9tergent)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Aspects culturels et sociaux</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La lessive n'est pas qu'un acte technique individuel. Elle fut longtemps un effort collectif ritualisé, essentiellement féminin. L'histoire des lavoirs et des lavandières témoigne de cette époque aujourd'hui révolue en Occident.
+On trouve dans le commerce des boules de lavage contenant des billes en céramique, censées augmenter le pouvoir lavant de l'eau. Aucune étude n'a prouvé l'efficacité de ces dispositifs et les tests effectuées donnent des résultats à peine meilleur qu'un lavage à l'eau.
 </t>
         </is>
       </c>
@@ -780,7 +813,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lessive_(d%C3%A9tergent)</t>
+          <t>Lessive_(détergent)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -795,12 +828,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Un marché concurrentiel</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le marché des lessives est concurrentiel. Cela a été calculé grâce à l'IHH (Indice de Herfindahl-Hirschman), qui permet de calculer le degré de concurrence d'un marché. En effet, l'indice de ce marché est de 1 363,3 ce qui signifie que c’est un marché sur lequel aucun acheteur ni vendeur n'est en mesure d’influencer le prix. De plus, il y a un vaste choix d'entreprises qui enrichissent ce marché.
+          <t>Aspects culturels et sociaux</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La lessive n'est pas qu'un acte technique individuel. Elle fut longtemps un effort collectif ritualisé, essentiellement féminin. L'histoire des lavoirs et des lavandières témoigne de cette époque aujourd'hui révolue en Occident.
 </t>
         </is>
       </c>
@@ -811,7 +846,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lessive_(d%C3%A9tergent)</t>
+          <t>Lessive_(détergent)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -826,10 +861,45 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>Un marché concurrentiel</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le marché des lessives est concurrentiel. Cela a été calculé grâce à l'IHH (Indice de Herfindahl-Hirschman), qui permet de calculer le degré de concurrence d'un marché. En effet, l'indice de ce marché est de 1 363,3 ce qui signifie que c’est un marché sur lequel aucun acheteur ni vendeur n'est en mesure d’influencer le prix. De plus, il y a un vaste choix d'entreprises qui enrichissent ce marché.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Lessive_(détergent)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Nettoyage et hygiène/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lessive_(d%C3%A9tergent)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Critères de décision des acheteurs</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Les critères de décision des acheteurs sont variables et nombreux. Ils se composent du/de :
 le prix ;
